--- a/HW1/1D ss satd.xlsx
+++ b/HW1/1D ss satd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e2a0924c8968bf/Documents/SPRING21/582-GWMod/hw-PortilloD/HW1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quilson2\OneDrive\Documents\SPRING21\582-GWMod\hw-PortilloD\HW1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9471746-CD2C-4F2F-B21D-D0C75BFA55D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{F9471746-CD2C-4F2F-B21D-D0C75BFA55D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{09A9A850-91E0-46BB-816B-1E6B985DB83F}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,14 @@
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -500,40 +508,40 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.11904761904762</c:v>
+                  <c:v>94.587205813584532</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.238095238095241</c:v>
+                  <c:v>89.173892824122262</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.357142857142861</c:v>
+                  <c:v>83.759871131052918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.476190476190482</c:v>
+                  <c:v>78.345011026148626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.595238095238098</c:v>
+                  <c:v>72.929247651562378</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.714285714285719</c:v>
+                  <c:v>67.512581001694571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9761904761904807</c:v>
+                  <c:v>62.095071580316031</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3809523809523849</c:v>
+                  <c:v>56.676832294737096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7857142857142891</c:v>
+                  <c:v>51.258017382080453</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1904761904761929</c:v>
+                  <c:v>45.838809308396179</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.59523809523809645</c:v>
+                  <c:v>40.41940465419809</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -864,40 +872,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="1">
-                  <c:v>1.1904761904761904E-3</c:v>
+                  <c:v>1.0825588372830937E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1904761904761904E-3</c:v>
+                  <c:v>1.082662597892454E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1904761904761904E-3</c:v>
+                  <c:v>1.0828043386138688E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1904761904761904E-3</c:v>
+                  <c:v>1.0829720209808585E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1904761904761906E-3</c:v>
+                  <c:v>1.0831526749172498E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1904761904761904E-3</c:v>
+                  <c:v>1.0833333299735615E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1904761904761906E-3</c:v>
+                  <c:v>1.0835018842757081E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1904761904761915E-3</c:v>
+                  <c:v>1.0836478571157868E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1904761904761915E-3</c:v>
+                  <c:v>1.0837629825313286E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1904761904761925E-3</c:v>
+                  <c:v>1.0838416147368548E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.190476190476193E-3</c:v>
+                  <c:v>1.083880930839618E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.190476190476193E-3</c:v>
+                  <c:v>1.083880930839618E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -972,7 +980,7 @@
         <c:axId val="720580808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0000000000000002E-2"/>
+          <c:max val="2.0000000000000004E-2"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1740,17 +1748,17 @@
   <dimension ref="B4:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1761,21 +1769,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -1786,7 +1794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>1</v>
       </c>
@@ -1794,10 +1802,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -1808,7 +1816,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>5</v>
       </c>
@@ -1816,7 +1824,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -1824,7 +1832,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>22</v>
       </c>
@@ -1832,7 +1840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -1840,125 +1848,125 @@
         <v>17</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
         <f>IF(D16=1,+$D$11,+IF(D16=2,+$D$12,+$D$13))</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ref="E17:E28" si="0">IF(D17=1,+$D$11,+IF(D17=2,+$D$12,+$D$13))</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>18</v>
       </c>
@@ -1966,17 +1974,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C34" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>21</v>
       </c>
@@ -1996,19 +2004,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" customWidth="1"/>
+    <col min="8" max="8" width="6.73046875" customWidth="1"/>
+    <col min="10" max="10" width="7.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:20" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:20" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="22" t="s">
         <v>32</v>
       </c>
@@ -2019,7 +2028,7 @@
       <c r="S4" s="14"/>
       <c r="T4" s="15"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
@@ -2030,7 +2039,7 @@
       <c r="S5" s="26"/>
       <c r="T5" s="27"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
         <v>12</v>
@@ -2067,7 +2076,7 @@
       <c r="S6" s="6"/>
       <c r="T6" s="17"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
@@ -2076,7 +2085,7 @@
       </c>
       <c r="D7" s="7">
         <f>SUM(L9:L19)+0.5*(L8+L20)</f>
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2092,7 +2101,7 @@
       </c>
       <c r="T7" s="17"/>
     </row>
-    <row r="8" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2101,7 +2110,7 @@
       </c>
       <c r="D8" s="7">
         <f>SUM(M9:M19)+0.5*(M8+M20)</f>
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1">
         <f>F9+inputs!$D$8</f>
@@ -2109,11 +2118,11 @@
       </c>
       <c r="G8" s="1">
         <f>inputs!D16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1">
         <f>IF(G8=1,+inputs!$D$11,+IF(G8=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.01</v>
       </c>
       <c r="I8" s="2">
         <f>inputs!D4</f>
@@ -2122,11 +2131,11 @@
       <c r="J8" s="1"/>
       <c r="L8">
         <f>IF($G8=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <f>IF($G8=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <f>IF($G8=3,1,0)</f>
@@ -2143,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
@@ -2160,27 +2169,27 @@
       </c>
       <c r="G9" s="1">
         <f>inputs!D17</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
         <f>IF(G9=1,+inputs!$D$11,+IF(G9=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.01</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ref="I9:I19" ca="1" si="0">(I8*2/(1/H8+1/H9)+I10*2/(1/H9+1/H10))/(2/(1/H8+1/H9)+2/(1/H9+1/H10))</f>
-        <v>85.11904761904762</v>
+        <v>94.587205813584532</v>
       </c>
       <c r="J9" s="1">
         <f ca="1">(I8-I9)/inputs!$D$8*2/(1/H8+1/H9)</f>
-        <v>1.1904761904761904E-3</v>
+        <v>1.0825588372830937E-2</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:L20" si="1">IF($G9=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <f t="shared" ref="M9:M20" si="2">IF($G9=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <f t="shared" ref="N9:N20" si="3">IF($G9=3,1,0)</f>
@@ -2197,7 +2206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B10" s="3"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
@@ -2207,27 +2216,27 @@
       </c>
       <c r="G10" s="1">
         <f>inputs!D18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1">
         <f>IF(G10=1,+inputs!$D$11,+IF(G10=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.01</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>70.238095238095241</v>
+        <v>89.173892824122262</v>
       </c>
       <c r="J10" s="1">
         <f ca="1">(I9-I10)/inputs!$D$8*2/(1/H9+1/H10)</f>
-        <v>1.1904761904761904E-3</v>
+        <v>1.082662597892454E-2</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
@@ -2244,13 +2253,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="6">
         <f>SUM(D7:D9)/(D7/C7+D8/C8+D9/C9)</f>
-        <v>7.1428571428571429E-4</v>
+        <v>0.01</v>
       </c>
       <c r="D11" s="7"/>
       <c r="F11" s="1">
@@ -2259,27 +2268,27 @@
       </c>
       <c r="G11" s="1">
         <f>inputs!D19</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1">
         <f>IF(G11=1,+inputs!$D$11,+IF(G11=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.01</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>55.357142857142861</v>
+        <v>83.759871131052918</v>
       </c>
       <c r="J11" s="1">
         <f ca="1">(I10-I11)/inputs!$D$8*2/(1/H10+1/H11)</f>
-        <v>1.1904761904761904E-3</v>
+        <v>1.0828043386138688E-2</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
@@ -2296,13 +2305,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="9">
         <f>C11*(I8-I20)/(F8-F20)</f>
-        <v>1.1904761904761904E-3</v>
+        <v>1.0833333333333334E-2</v>
       </c>
       <c r="D12" s="10"/>
       <c r="F12" s="1">
@@ -2311,27 +2320,27 @@
       </c>
       <c r="G12" s="1">
         <f>inputs!D20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="1">
         <f>IF(G12=1,+inputs!$D$11,+IF(G12=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.01</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>40.476190476190482</v>
+        <v>78.345011026148626</v>
       </c>
       <c r="J12" s="1">
         <f ca="1">(I11-I12)/inputs!$D$8*2/(1/H11+1/H12)</f>
-        <v>1.1904761904761904E-3</v>
+        <v>1.0829720209808585E-2</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <f t="shared" si="3"/>
@@ -2348,34 +2357,34 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="F13" s="1">
         <f>F14+inputs!$D$8</f>
         <v>35</v>
       </c>
       <c r="G13" s="1">
         <f>inputs!D21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="1">
         <f>IF(G13=1,+inputs!$D$11,+IF(G13=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.01</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>25.595238095238098</v>
+        <v>72.929247651562378</v>
       </c>
       <c r="J13" s="1">
         <f ca="1">(I12-I13)/inputs!$D$8*2/(1/H12+1/H13)</f>
-        <v>1.1904761904761906E-3</v>
+        <v>1.0831526749172498E-2</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
@@ -2392,34 +2401,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="F14" s="1">
         <f>F15+inputs!$D$8</f>
         <v>30</v>
       </c>
       <c r="G14" s="1">
         <f>inputs!D22</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1">
         <f>IF(G14=1,+inputs!$D$11,+IF(G14=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.01</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10.714285714285719</v>
+        <v>67.512581001694571</v>
       </c>
       <c r="J14" s="1">
         <f ca="1">(I13-I14)/inputs!$D$8*2/(1/H13+1/H14)</f>
-        <v>1.1904761904761904E-3</v>
+        <v>1.0833333299735615E-2</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
@@ -2436,7 +2445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="F15" s="1">
         <f>F16+inputs!$D$8</f>
         <v>25</v>
@@ -2450,11 +2459,11 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9761904761904807</v>
+        <v>62.095071580316031</v>
       </c>
       <c r="J15" s="1">
         <f ca="1">(I14-I15)/inputs!$D$8*2/(1/H14+1/H15)</f>
-        <v>1.1904761904761906E-3</v>
+        <v>1.0835018842757081E-2</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
@@ -2479,7 +2488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="F16" s="1">
         <f>F17+inputs!$D$8</f>
         <v>20</v>
@@ -2493,11 +2502,11 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3809523809523849</v>
+        <v>56.676832294737096</v>
       </c>
       <c r="J16" s="1">
         <f ca="1">(I15-I16)/inputs!$D$8*2/(1/H15+1/H16)</f>
-        <v>1.1904761904761915E-3</v>
+        <v>1.0836478571157868E-2</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
@@ -2522,7 +2531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="6:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="F17" s="1">
         <f>F18+inputs!$D$8</f>
         <v>15</v>
@@ -2536,11 +2545,11 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7857142857142891</v>
+        <v>51.258017382080453</v>
       </c>
       <c r="J17" s="1">
         <f ca="1">(I16-I17)/inputs!$D$8*2/(1/H16+1/H17)</f>
-        <v>1.1904761904761915E-3</v>
+        <v>1.0837629825313286E-2</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
@@ -2565,7 +2574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="6:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="F18" s="1">
         <f>F19+inputs!$D$8</f>
         <v>10</v>
@@ -2579,11 +2588,11 @@
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1904761904761929</v>
+        <v>45.838809308396179</v>
       </c>
       <c r="J18" s="1">
         <f ca="1">(I17-I18)/inputs!$D$8*2/(1/H17+1/H18)</f>
-        <v>1.1904761904761925E-3</v>
+        <v>1.0838416147368548E-2</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
@@ -2608,7 +2617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="6:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="F19" s="1">
         <f>F20+inputs!$D$8</f>
         <v>5</v>
@@ -2622,11 +2631,11 @@
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59523809523809645</v>
+        <v>40.41940465419809</v>
       </c>
       <c r="J19" s="1">
         <f ca="1">(I18-I19)/inputs!$D$8*2/(1/H18+1/H19)</f>
-        <v>1.190476190476193E-3</v>
+        <v>1.083880930839618E-2</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
@@ -2651,7 +2660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="6:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="F20" s="1">
         <f>inputs!D9</f>
         <v>0</v>
@@ -2665,11 +2674,11 @@
       </c>
       <c r="I20" s="2">
         <f>inputs!D5</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J20" s="1">
         <f ca="1">(I19-I20)/inputs!$D$8*2/(1/H19+1/H20)</f>
-        <v>1.190476190476193E-3</v>
+        <v>1.083880930839618E-2</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
@@ -2694,7 +2703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:20" x14ac:dyDescent="0.35">
       <c r="P31" s="11"/>
     </row>
   </sheetData>
